--- a/biology/Zoologie/Francisco_Hernández/Francisco_Hernández.xlsx
+++ b/biology/Zoologie/Francisco_Hernández/Francisco_Hernández.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Francisco_Hern%C3%A1ndez</t>
+          <t>Francisco_Hernández</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francisco Hernández de Toledo, né en 1515[1] dans La Puebla de Montalbán près de Tolède et mort le 28 janvier 1587[2] à Madrid, est un médecin et un botaniste espagnol.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francisco Hernández de Toledo, né en 1515 dans La Puebla de Montalbán près de Tolède et mort le 28 janvier 1587 à Madrid, est un médecin et un botaniste espagnol.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Francisco_Hern%C3%A1ndez</t>
+          <t>Francisco_Hernández</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine à l'université d'Alcalá et exerce plusieurs années à Tolède et à Séville. Il exerce ensuite dans les hôpitaux du Monastère de Guadalupe, une fonction prestigieuse et bien payée. Il retourne à Tolède vers les années 1565 mais est bientôt transféré comme médecin à la cour royale.
 De formation scientifique, il consacre beaucoup d'énergie à l'histoire naturelle et traduit l’Histoire naturelle de Pline l'Ancien (23-79). Il possède une solide formation intellectuelle et scientifique, et une mentalité ouverte aux nouveautés. Il critique notamment Nicolas Monardes (v. 1493-1588), qui rédige son œuvre en étudiant simplement, sans se déplacer, les plantes qui sont apportées par les voyageurs espagnols. Pour Hernández, il convient d’étudier la nature directement, in natura. Il est choisi par Philippe II pour diriger une  expédition scientifique en Amérique et notamment en Nouvelle-Espagne. Hernández se voit offrir 60 000 ducats pour organiser son voyage. Par ordre royal du 11 janvier 1570, le roi le nomme protomédico general de nuestras Indias, islas y tierra firme del mar Océano. Hernández est chargé de la réalisation d'un journal de ses découvertes en suivant le modèle de l’Histoire naturelle de Pline.
